--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\cours2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5028E8D-6185-47DA-A9F6-8644A8004286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27CDC7D-1473-4548-99B0-14F9E099D813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{411E6327-82E9-4ED8-8952-5B3661E5FAEB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -45,7 +45,19 @@
     <t>note</t>
   </si>
   <si>
-    <t>progrmation éfficace</t>
+    <t>analyse</t>
+  </si>
+  <si>
+    <t>dev effi</t>
+  </si>
+  <si>
+    <t>réseaux</t>
+  </si>
+  <si>
+    <t>programation éfficace</t>
+  </si>
+  <si>
+    <t>ppp (cv)</t>
   </si>
 </sst>
 </file>
@@ -89,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -100,6 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,15 +427,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDFDD6C-92E0-4E48-9517-82BB1E6D6A9D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -441,9 +455,44 @@
         <v>45194</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45212</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
         <v>13.5</v>
       </c>
     </row>
